--- a/Design docs/weatherstats.xlsx
+++ b/Design docs/weatherstats.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="60" windowWidth="13995" windowHeight="11430" activeTab="4"/>
+    <workbookView xWindow="0" yWindow="60" windowWidth="13995" windowHeight="11430"/>
   </bookViews>
   <sheets>
     <sheet name="Chart1" sheetId="4" r:id="rId1"/>
@@ -310,7 +310,7 @@
     <numFmt numFmtId="176" formatCode="0.000000000000_);[Red]\(0.000000000000\)"/>
     <numFmt numFmtId="177" formatCode="0.0000_ "/>
   </numFmts>
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="5">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -4122,11 +4122,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="154154496"/>
-        <c:axId val="52711936"/>
+        <c:axId val="197125632"/>
+        <c:axId val="75725568"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="154154496"/>
+        <c:axId val="197125632"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4135,7 +4135,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="52711936"/>
+        <c:crossAx val="75725568"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -4143,7 +4143,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="52711936"/>
+        <c:axId val="75725568"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4154,13 +4154,14 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="154154496"/>
+        <c:crossAx val="197125632"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
+      <c:layout/>
       <c:overlay val="0"/>
     </c:legend>
     <c:plotVisOnly val="1"/>
@@ -4203,19 +4204,19 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="31"/>
                 <c:pt idx="0">
+                  <c:v>30.457072330852945</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>38.334818800412435</c:v>
+                </c:pt>
+                <c:pt idx="2">
                   <c:v>0</c:v>
                 </c:pt>
-                <c:pt idx="1">
-                  <c:v>37.198100297525258</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>0.4955584047349646</c:v>
-                </c:pt>
                 <c:pt idx="3">
-                  <c:v>3.8835878511139423</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>29.559283608920765</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="5">
                   <c:v>0</c:v>
@@ -4239,16 +4240,16 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>0</c:v>
+                  <c:v>23.821531870081643</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>0</c:v>
+                  <c:v>15.075370209301125</c:v>
                 </c:pt>
                 <c:pt idx="14">
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>0</c:v>
+                  <c:v>10.873697538814733</c:v>
                 </c:pt>
                 <c:pt idx="16">
                   <c:v>0</c:v>
@@ -4266,34 +4267,34 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>0</c:v>
+                  <c:v>3.8088668827880792</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>0</c:v>
+                  <c:v>33.146189755017232</c:v>
                 </c:pt>
                 <c:pt idx="23">
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="24">
+                  <c:v>33.922884609100208</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>15.471313519496508</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>3.7526295652365178</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>4.2231748051828948</c:v>
+                </c:pt>
+                <c:pt idx="28">
                   <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="25">
-                  <c:v>55.436721515659833</c:v>
-                </c:pt>
-                <c:pt idx="26">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="27">
-                  <c:v>1.8395567566692002</c:v>
-                </c:pt>
-                <c:pt idx="28">
-                  <c:v>6.4154786655625298</c:v>
                 </c:pt>
                 <c:pt idx="29">
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>5.0563616879570343</c:v>
+                  <c:v>10.229462117508616</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4310,11 +4311,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="58740736"/>
-        <c:axId val="103267648"/>
+        <c:axId val="62009856"/>
+        <c:axId val="197216512"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="58740736"/>
+        <c:axId val="62009856"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4323,7 +4324,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="103267648"/>
+        <c:crossAx val="197216512"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -4331,7 +4332,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="103267648"/>
+        <c:axId val="197216512"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4342,7 +4343,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="58740736"/>
+        <c:crossAx val="62009856"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -4368,7 +4369,7 @@
 <chartsheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <sheetPr/>
   <sheetViews>
-    <sheetView zoomScale="117" workbookViewId="0" zoomToFit="1"/>
+    <sheetView tabSelected="1" zoomScale="95" workbookViewId="0" zoomToFit="1"/>
   </sheetViews>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
@@ -4379,7 +4380,7 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:absoluteAnchor>
     <xdr:pos x="0" y="0"/>
-    <xdr:ext cx="9297051" cy="6073205"/>
+    <xdr:ext cx="9296797" cy="6072188"/>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
         <xdr:cNvPr id="2" name="차트 1"/>
@@ -4730,9 +4731,9 @@
       <selection activeCell="D29" sqref="D29"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="16.5"/>
   <sheetData>
-    <row r="1" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:13">
       <c r="C1" s="8" t="s">
         <v>13</v>
       </c>
@@ -4743,7 +4744,7 @@
       <c r="H1" s="8"/>
       <c r="I1" s="8"/>
     </row>
-    <row r="2" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:13">
       <c r="A2" t="s">
         <v>0</v>
       </c>
@@ -4784,7 +4785,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="3" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:13">
       <c r="A3">
         <v>1</v>
       </c>
@@ -4825,7 +4826,7 @@
         <v>1.7</v>
       </c>
     </row>
-    <row r="4" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:13">
       <c r="A4">
         <v>2</v>
       </c>
@@ -4866,7 +4867,7 @@
         <v>1.7</v>
       </c>
     </row>
-    <row r="5" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:13">
       <c r="A5">
         <v>3</v>
       </c>
@@ -4907,7 +4908,7 @@
         <v>1.5</v>
       </c>
     </row>
-    <row r="6" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:13">
       <c r="A6">
         <v>4</v>
       </c>
@@ -4948,7 +4949,7 @@
         <v>1.6</v>
       </c>
     </row>
-    <row r="7" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:13">
       <c r="A7">
         <v>5</v>
       </c>
@@ -4989,7 +4990,7 @@
         <v>1.6</v>
       </c>
     </row>
-    <row r="8" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:13">
       <c r="A8">
         <v>6</v>
       </c>
@@ -5030,7 +5031,7 @@
         <v>1.6</v>
       </c>
     </row>
-    <row r="9" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:13">
       <c r="A9">
         <v>7</v>
       </c>
@@ -5071,7 +5072,7 @@
         <v>1.4</v>
       </c>
     </row>
-    <row r="10" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:13">
       <c r="A10">
         <v>8</v>
       </c>
@@ -5112,7 +5113,7 @@
         <v>1.5</v>
       </c>
     </row>
-    <row r="11" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:13">
       <c r="A11">
         <v>9</v>
       </c>
@@ -5153,7 +5154,7 @@
         <v>1.2</v>
       </c>
     </row>
-    <row r="12" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:13">
       <c r="A12">
         <v>10</v>
       </c>
@@ -5194,7 +5195,7 @@
         <v>1.1000000000000001</v>
       </c>
     </row>
-    <row r="13" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:13">
       <c r="A13">
         <v>11</v>
       </c>
@@ -5235,7 +5236,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="14" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:13">
       <c r="A14">
         <v>12</v>
       </c>
@@ -5276,7 +5277,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="15" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:13">
       <c r="A15">
         <v>13</v>
       </c>
@@ -5317,7 +5318,7 @@
         <v>0.6</v>
       </c>
     </row>
-    <row r="16" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:13">
       <c r="A16">
         <v>14</v>
       </c>
@@ -5358,7 +5359,7 @@
         <v>0.7</v>
       </c>
     </row>
-    <row r="17" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:13">
       <c r="A17">
         <v>15</v>
       </c>
@@ -5399,7 +5400,7 @@
         <v>0.8</v>
       </c>
     </row>
-    <row r="18" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:13">
       <c r="A18">
         <v>16</v>
       </c>
@@ -5440,7 +5441,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="19" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:13">
       <c r="A19">
         <v>17</v>
       </c>
@@ -5481,7 +5482,7 @@
         <v>0.9</v>
       </c>
     </row>
-    <row r="20" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:13">
       <c r="A20">
         <v>18</v>
       </c>
@@ -5522,7 +5523,7 @@
         <v>0.9</v>
       </c>
     </row>
-    <row r="21" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:13">
       <c r="A21">
         <v>19</v>
       </c>
@@ -5563,7 +5564,7 @@
         <v>0.8</v>
       </c>
     </row>
-    <row r="22" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:13">
       <c r="A22">
         <v>20</v>
       </c>
@@ -5604,7 +5605,7 @@
         <v>0.7</v>
       </c>
     </row>
-    <row r="23" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:13">
       <c r="A23">
         <v>21</v>
       </c>
@@ -5645,7 +5646,7 @@
         <v>0.6</v>
       </c>
     </row>
-    <row r="24" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:13">
       <c r="A24">
         <v>22</v>
       </c>
@@ -5686,7 +5687,7 @@
         <v>0.6</v>
       </c>
     </row>
-    <row r="25" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:13">
       <c r="A25">
         <v>23</v>
       </c>
@@ -5727,7 +5728,7 @@
         <v>0.7</v>
       </c>
     </row>
-    <row r="26" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:13">
       <c r="A26">
         <v>24</v>
       </c>
@@ -5768,7 +5769,7 @@
         <v>0.8</v>
       </c>
     </row>
-    <row r="27" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:13">
       <c r="A27">
         <v>25</v>
       </c>
@@ -5809,7 +5810,7 @@
         <v>0.7</v>
       </c>
     </row>
-    <row r="28" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:13">
       <c r="A28">
         <v>26</v>
       </c>
@@ -5850,7 +5851,7 @@
         <v>0.7</v>
       </c>
     </row>
-    <row r="29" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:13">
       <c r="A29">
         <v>27</v>
       </c>
@@ -5891,7 +5892,7 @@
         <v>0.8</v>
       </c>
     </row>
-    <row r="30" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:13">
       <c r="A30">
         <v>28</v>
       </c>
@@ -5932,7 +5933,7 @@
         <v>0.9</v>
       </c>
     </row>
-    <row r="31" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:13">
       <c r="A31">
         <v>29</v>
       </c>
@@ -5970,7 +5971,7 @@
         <v>0.8</v>
       </c>
     </row>
-    <row r="32" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:13">
       <c r="A32">
         <v>30</v>
       </c>
@@ -6008,7 +6009,7 @@
         <v>0.9</v>
       </c>
     </row>
-    <row r="33" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:13">
       <c r="A33">
         <v>31</v>
       </c>
@@ -6034,7 +6035,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="34" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:13">
       <c r="B34">
         <f>AVERAGE(B3:B33)</f>
         <v>1.2129032258064514</v>
@@ -6084,7 +6085,7 @@
         <v>1.0258064516129031</v>
       </c>
     </row>
-    <row r="35" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:13">
       <c r="B35">
         <f>SUM(B3:B33)</f>
         <v>37.599999999999994</v>
@@ -6151,9 +6152,9 @@
       <selection activeCell="C40" sqref="C40"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="16.5"/>
   <sheetData>
-    <row r="1" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:13">
       <c r="C1" s="8" t="s">
         <v>13</v>
       </c>
@@ -6164,7 +6165,7 @@
       <c r="H1" s="8"/>
       <c r="I1" s="8"/>
     </row>
-    <row r="2" spans="1:13" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:13" ht="17.25" thickBot="1">
       <c r="A2" t="s">
         <v>0</v>
       </c>
@@ -6205,7 +6206,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="3" spans="1:13" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:13" ht="17.25" thickBot="1">
       <c r="A3" s="1" t="s">
         <v>14</v>
       </c>
@@ -6246,7 +6247,7 @@
         <v>1.7</v>
       </c>
     </row>
-    <row r="4" spans="1:13" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:13" ht="17.25" thickBot="1">
       <c r="A4" s="1" t="s">
         <v>15</v>
       </c>
@@ -6287,7 +6288,7 @@
         <v>1.7</v>
       </c>
     </row>
-    <row r="5" spans="1:13" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:13" ht="17.25" thickBot="1">
       <c r="A5" s="1" t="s">
         <v>16</v>
       </c>
@@ -6328,7 +6329,7 @@
         <v>1.5</v>
       </c>
     </row>
-    <row r="6" spans="1:13" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:13" ht="17.25" thickBot="1">
       <c r="A6" s="1" t="s">
         <v>17</v>
       </c>
@@ -6369,7 +6370,7 @@
         <v>1.6</v>
       </c>
     </row>
-    <row r="7" spans="1:13" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:13" ht="17.25" thickBot="1">
       <c r="A7" s="1" t="s">
         <v>18</v>
       </c>
@@ -6410,7 +6411,7 @@
         <v>1.6</v>
       </c>
     </row>
-    <row r="8" spans="1:13" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:13" ht="17.25" thickBot="1">
       <c r="A8" s="1" t="s">
         <v>19</v>
       </c>
@@ -6451,7 +6452,7 @@
         <v>1.6</v>
       </c>
     </row>
-    <row r="9" spans="1:13" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:13" ht="17.25" thickBot="1">
       <c r="A9" s="1" t="s">
         <v>20</v>
       </c>
@@ -6492,7 +6493,7 @@
         <v>1.2</v>
       </c>
     </row>
-    <row r="10" spans="1:13" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:13" ht="17.25" thickBot="1">
       <c r="A10" s="1" t="s">
         <v>21</v>
       </c>
@@ -6533,7 +6534,7 @@
         <v>1.5</v>
       </c>
     </row>
-    <row r="11" spans="1:13" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:13" ht="17.25" thickBot="1">
       <c r="A11" s="1" t="s">
         <v>22</v>
       </c>
@@ -6574,7 +6575,7 @@
         <v>1.2</v>
       </c>
     </row>
-    <row r="12" spans="1:13" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:13" ht="17.25" thickBot="1">
       <c r="A12" s="1" t="s">
         <v>23</v>
       </c>
@@ -6615,7 +6616,7 @@
         <v>1.1000000000000001</v>
       </c>
     </row>
-    <row r="13" spans="1:13" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:13" ht="17.25" thickBot="1">
       <c r="A13" s="1" t="s">
         <v>24</v>
       </c>
@@ -6656,7 +6657,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="14" spans="1:13" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:13" ht="17.25" thickBot="1">
       <c r="A14" s="1" t="s">
         <v>25</v>
       </c>
@@ -6697,7 +6698,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="15" spans="1:13" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:13" ht="17.25" thickBot="1">
       <c r="A15" s="1" t="s">
         <v>26</v>
       </c>
@@ -6738,7 +6739,7 @@
         <v>0.6</v>
       </c>
     </row>
-    <row r="16" spans="1:13" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:13" ht="17.25" thickBot="1">
       <c r="A16" s="1" t="s">
         <v>27</v>
       </c>
@@ -6779,7 +6780,7 @@
         <v>0.7</v>
       </c>
     </row>
-    <row r="17" spans="1:13" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:13" ht="17.25" thickBot="1">
       <c r="A17" s="1" t="s">
         <v>28</v>
       </c>
@@ -6820,7 +6821,7 @@
         <v>0.8</v>
       </c>
     </row>
-    <row r="18" spans="1:13" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:13" ht="17.25" thickBot="1">
       <c r="A18" s="1" t="s">
         <v>29</v>
       </c>
@@ -6861,7 +6862,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="19" spans="1:13" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:13" ht="17.25" thickBot="1">
       <c r="A19" s="1" t="s">
         <v>30</v>
       </c>
@@ -6902,7 +6903,7 @@
         <v>0.9</v>
       </c>
     </row>
-    <row r="20" spans="1:13" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:13" ht="17.25" thickBot="1">
       <c r="A20" s="1" t="s">
         <v>31</v>
       </c>
@@ -6943,7 +6944,7 @@
         <v>0.9</v>
       </c>
     </row>
-    <row r="21" spans="1:13" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:13" ht="17.25" thickBot="1">
       <c r="A21" s="1" t="s">
         <v>32</v>
       </c>
@@ -6984,7 +6985,7 @@
         <v>0.8</v>
       </c>
     </row>
-    <row r="22" spans="1:13" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:13" ht="17.25" thickBot="1">
       <c r="A22" s="1" t="s">
         <v>33</v>
       </c>
@@ -7025,7 +7026,7 @@
         <v>0.7</v>
       </c>
     </row>
-    <row r="23" spans="1:13" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:13" ht="17.25" thickBot="1">
       <c r="A23" s="1" t="s">
         <v>34</v>
       </c>
@@ -7066,7 +7067,7 @@
         <v>0.6</v>
       </c>
     </row>
-    <row r="24" spans="1:13" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:13" ht="17.25" thickBot="1">
       <c r="A24" s="1" t="s">
         <v>35</v>
       </c>
@@ -7107,7 +7108,7 @@
         <v>0.6</v>
       </c>
     </row>
-    <row r="25" spans="1:13" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:13" ht="17.25" thickBot="1">
       <c r="A25" s="1" t="s">
         <v>36</v>
       </c>
@@ -7148,7 +7149,7 @@
         <v>0.7</v>
       </c>
     </row>
-    <row r="26" spans="1:13" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:13" ht="17.25" thickBot="1">
       <c r="A26" s="1" t="s">
         <v>37</v>
       </c>
@@ -7189,7 +7190,7 @@
         <v>0.8</v>
       </c>
     </row>
-    <row r="27" spans="1:13" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:13" ht="17.25" thickBot="1">
       <c r="A27" s="1" t="s">
         <v>38</v>
       </c>
@@ -7230,7 +7231,7 @@
         <v>0.7</v>
       </c>
     </row>
-    <row r="28" spans="1:13" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:13" ht="17.25" thickBot="1">
       <c r="A28" s="1" t="s">
         <v>39</v>
       </c>
@@ -7271,7 +7272,7 @@
         <v>0.7</v>
       </c>
     </row>
-    <row r="29" spans="1:13" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:13" ht="17.25" thickBot="1">
       <c r="A29" s="1" t="s">
         <v>40</v>
       </c>
@@ -7312,7 +7313,7 @@
         <v>0.8</v>
       </c>
     </row>
-    <row r="30" spans="1:13" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:13" ht="17.25" thickBot="1">
       <c r="A30" s="1" t="s">
         <v>41</v>
       </c>
@@ -7353,7 +7354,7 @@
         <v>0.9</v>
       </c>
     </row>
-    <row r="31" spans="1:13" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:13" ht="17.25" thickBot="1">
       <c r="A31" s="1" t="s">
         <v>42</v>
       </c>
@@ -7394,7 +7395,7 @@
         <v>0.8</v>
       </c>
     </row>
-    <row r="32" spans="1:13" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:13" ht="17.25" thickBot="1">
       <c r="A32" s="1" t="s">
         <v>43</v>
       </c>
@@ -7435,7 +7436,7 @@
         <v>0.9</v>
       </c>
     </row>
-    <row r="33" spans="1:13" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:13" ht="17.25" thickBot="1">
       <c r="A33" s="1" t="s">
         <v>44</v>
       </c>
@@ -7476,7 +7477,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="34" spans="1:13" s="2" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:13" s="2" customFormat="1">
       <c r="A34" s="3" t="s">
         <v>46</v>
       </c>
@@ -7529,7 +7530,7 @@
         <v>1.0193548387096771</v>
       </c>
     </row>
-    <row r="35" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:13">
       <c r="A35" s="4" t="s">
         <v>47</v>
       </c>
@@ -7582,7 +7583,7 @@
         <v>31.599999999999994</v>
       </c>
     </row>
-    <row r="36" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:13">
       <c r="A36" s="4" t="s">
         <v>45</v>
       </c>
@@ -7652,9 +7653,9 @@
       <selection activeCell="H3" sqref="H3:H33"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="16.5"/>
   <sheetData>
-    <row r="1" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:13">
       <c r="C1" s="8" t="s">
         <v>13</v>
       </c>
@@ -7665,7 +7666,7 @@
       <c r="H1" s="8"/>
       <c r="I1" s="8"/>
     </row>
-    <row r="2" spans="1:13" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:13" ht="17.25" thickBot="1">
       <c r="A2" t="s">
         <v>0</v>
       </c>
@@ -7706,7 +7707,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="3" spans="1:13" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:13" ht="17.25" thickBot="1">
       <c r="A3" s="1" t="s">
         <v>14</v>
       </c>
@@ -7747,7 +7748,7 @@
         <v>1.7</v>
       </c>
     </row>
-    <row r="4" spans="1:13" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:13" ht="17.25" thickBot="1">
       <c r="A4" s="1" t="s">
         <v>15</v>
       </c>
@@ -7788,7 +7789,7 @@
         <v>1.7</v>
       </c>
     </row>
-    <row r="5" spans="1:13" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:13" ht="17.25" thickBot="1">
       <c r="A5" s="1" t="s">
         <v>16</v>
       </c>
@@ -7829,7 +7830,7 @@
         <v>1.5</v>
       </c>
     </row>
-    <row r="6" spans="1:13" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:13" ht="17.25" thickBot="1">
       <c r="A6" s="1" t="s">
         <v>17</v>
       </c>
@@ -7870,7 +7871,7 @@
         <v>1.6</v>
       </c>
     </row>
-    <row r="7" spans="1:13" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:13" ht="17.25" thickBot="1">
       <c r="A7" s="1" t="s">
         <v>18</v>
       </c>
@@ -7911,7 +7912,7 @@
         <v>1.6</v>
       </c>
     </row>
-    <row r="8" spans="1:13" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:13" ht="17.25" thickBot="1">
       <c r="A8" s="1" t="s">
         <v>19</v>
       </c>
@@ -7952,7 +7953,7 @@
         <v>1.6</v>
       </c>
     </row>
-    <row r="9" spans="1:13" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:13" ht="17.25" thickBot="1">
       <c r="A9" s="1" t="s">
         <v>20</v>
       </c>
@@ -7993,7 +7994,7 @@
         <v>1.2</v>
       </c>
     </row>
-    <row r="10" spans="1:13" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:13" ht="17.25" thickBot="1">
       <c r="A10" s="1" t="s">
         <v>21</v>
       </c>
@@ -8034,7 +8035,7 @@
         <v>1.5</v>
       </c>
     </row>
-    <row r="11" spans="1:13" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:13" ht="17.25" thickBot="1">
       <c r="A11" s="1" t="s">
         <v>22</v>
       </c>
@@ -8075,7 +8076,7 @@
         <v>1.2</v>
       </c>
     </row>
-    <row r="12" spans="1:13" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:13" ht="17.25" thickBot="1">
       <c r="A12" s="1" t="s">
         <v>23</v>
       </c>
@@ -8116,7 +8117,7 @@
         <v>1.1000000000000001</v>
       </c>
     </row>
-    <row r="13" spans="1:13" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:13" ht="17.25" thickBot="1">
       <c r="A13" s="1" t="s">
         <v>24</v>
       </c>
@@ -8157,7 +8158,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="14" spans="1:13" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:13" ht="17.25" thickBot="1">
       <c r="A14" s="1" t="s">
         <v>25</v>
       </c>
@@ -8198,7 +8199,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="15" spans="1:13" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:13" ht="17.25" thickBot="1">
       <c r="A15" s="1" t="s">
         <v>26</v>
       </c>
@@ -8239,7 +8240,7 @@
         <v>0.6</v>
       </c>
     </row>
-    <row r="16" spans="1:13" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:13" ht="17.25" thickBot="1">
       <c r="A16" s="1" t="s">
         <v>27</v>
       </c>
@@ -8280,7 +8281,7 @@
         <v>0.7</v>
       </c>
     </row>
-    <row r="17" spans="1:13" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:13" ht="17.25" thickBot="1">
       <c r="A17" s="1" t="s">
         <v>28</v>
       </c>
@@ -8321,7 +8322,7 @@
         <v>0.8</v>
       </c>
     </row>
-    <row r="18" spans="1:13" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:13" ht="17.25" thickBot="1">
       <c r="A18" s="1" t="s">
         <v>29</v>
       </c>
@@ -8362,7 +8363,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="19" spans="1:13" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:13" ht="17.25" thickBot="1">
       <c r="A19" s="1" t="s">
         <v>30</v>
       </c>
@@ -8403,7 +8404,7 @@
         <v>0.9</v>
       </c>
     </row>
-    <row r="20" spans="1:13" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:13" ht="17.25" thickBot="1">
       <c r="A20" s="1" t="s">
         <v>31</v>
       </c>
@@ -8444,7 +8445,7 @@
         <v>0.9</v>
       </c>
     </row>
-    <row r="21" spans="1:13" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:13" ht="17.25" thickBot="1">
       <c r="A21" s="1" t="s">
         <v>32</v>
       </c>
@@ -8485,7 +8486,7 @@
         <v>0.8</v>
       </c>
     </row>
-    <row r="22" spans="1:13" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:13" ht="17.25" thickBot="1">
       <c r="A22" s="1" t="s">
         <v>33</v>
       </c>
@@ -8526,7 +8527,7 @@
         <v>0.7</v>
       </c>
     </row>
-    <row r="23" spans="1:13" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:13" ht="17.25" thickBot="1">
       <c r="A23" s="1" t="s">
         <v>34</v>
       </c>
@@ -8567,7 +8568,7 @@
         <v>0.6</v>
       </c>
     </row>
-    <row r="24" spans="1:13" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:13" ht="17.25" thickBot="1">
       <c r="A24" s="1" t="s">
         <v>35</v>
       </c>
@@ -8608,7 +8609,7 @@
         <v>0.6</v>
       </c>
     </row>
-    <row r="25" spans="1:13" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:13" ht="17.25" thickBot="1">
       <c r="A25" s="1" t="s">
         <v>36</v>
       </c>
@@ -8649,7 +8650,7 @@
         <v>0.7</v>
       </c>
     </row>
-    <row r="26" spans="1:13" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:13" ht="17.25" thickBot="1">
       <c r="A26" s="1" t="s">
         <v>37</v>
       </c>
@@ -8690,7 +8691,7 @@
         <v>0.8</v>
       </c>
     </row>
-    <row r="27" spans="1:13" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:13" ht="17.25" thickBot="1">
       <c r="A27" s="1" t="s">
         <v>38</v>
       </c>
@@ -8731,7 +8732,7 @@
         <v>0.7</v>
       </c>
     </row>
-    <row r="28" spans="1:13" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:13" ht="17.25" thickBot="1">
       <c r="A28" s="1" t="s">
         <v>39</v>
       </c>
@@ -8772,7 +8773,7 @@
         <v>0.7</v>
       </c>
     </row>
-    <row r="29" spans="1:13" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:13" ht="17.25" thickBot="1">
       <c r="A29" s="1" t="s">
         <v>40</v>
       </c>
@@ -8813,7 +8814,7 @@
         <v>0.8</v>
       </c>
     </row>
-    <row r="30" spans="1:13" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:13" ht="17.25" thickBot="1">
       <c r="A30" s="1" t="s">
         <v>41</v>
       </c>
@@ -8854,7 +8855,7 @@
         <v>0.9</v>
       </c>
     </row>
-    <row r="31" spans="1:13" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:13" ht="17.25" thickBot="1">
       <c r="A31" s="1" t="s">
         <v>42</v>
       </c>
@@ -8895,7 +8896,7 @@
         <v>0.8</v>
       </c>
     </row>
-    <row r="32" spans="1:13" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:13" ht="17.25" thickBot="1">
       <c r="A32" s="1" t="s">
         <v>43</v>
       </c>
@@ -8934,7 +8935,7 @@
         <v>0.9</v>
       </c>
     </row>
-    <row r="33" spans="1:13" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:13" ht="17.25" thickBot="1">
       <c r="A33" s="1" t="s">
         <v>44</v>
       </c>
@@ -8965,7 +8966,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="34" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:13">
       <c r="A34" s="3" t="s">
         <v>46</v>
       </c>
@@ -9018,7 +9019,7 @@
         <v>1.0193548387096771</v>
       </c>
     </row>
-    <row r="35" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:13">
       <c r="A35" s="4" t="s">
         <v>47</v>
       </c>
@@ -9071,7 +9072,7 @@
         <v>31.599999999999994</v>
       </c>
     </row>
-    <row r="36" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:13">
       <c r="A36" s="4" t="s">
         <v>45</v>
       </c>
@@ -9124,7 +9125,7 @@
         <v>0.35629515371267734</v>
       </c>
     </row>
-    <row r="37" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:13">
       <c r="A37" t="s">
         <v>49</v>
       </c>
@@ -9177,7 +9178,7 @@
         <v>0.79460301589687554</v>
       </c>
     </row>
-    <row r="38" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:13">
       <c r="A38" t="s">
         <v>82</v>
       </c>
@@ -9243,16 +9244,16 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K64"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="H24" sqref="H24"/>
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="J6" sqref="J6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="16.5"/>
   <cols>
     <col min="4" max="4" width="15.5" style="5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:6" ht="17.25" thickBot="1">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -9269,7 +9270,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="2" spans="1:6" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:6" ht="17.25" thickBot="1">
       <c r="A2" s="1" t="s">
         <v>14</v>
       </c>
@@ -9278,22 +9279,22 @@
       </c>
       <c r="C2" s="7">
         <f ca="1">_xlfn.NORM.INV(RAND(), 0, 1)</f>
-        <v>-0.48493351625998804</v>
+        <v>0.76640605411130935</v>
       </c>
       <c r="D2" s="5">
         <f ca="1">2*(POWER(((C2 - $B$36 / 6) * ($B$36 / 6) + 1), 3) - 1) * $B$35 / $B$36 + B2 * 2</f>
-        <v>4.3061929678724375</v>
+        <v>30.457072330852945</v>
       </c>
       <c r="E2">
         <f ca="1">IF(RAND()&lt; $D$35, 1, 0)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F2">
         <f ca="1">IF(IF(E2=1,D2,0) &lt; 0, 0, IF(E2=1,D2,0))</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+        <v>30.457072330852945</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" ht="17.25" thickBot="1">
       <c r="A3" s="1" t="s">
         <v>15</v>
       </c>
@@ -9302,11 +9303,11 @@
       </c>
       <c r="C3" s="7">
         <f t="shared" ref="C3:C32" ca="1" si="0">_xlfn.NORM.INV(RAND(), 0, 1)</f>
-        <v>0.91548017691465045</v>
+        <v>0.94412994808713691</v>
       </c>
       <c r="D3" s="5">
         <f t="shared" ref="D3:D32" ca="1" si="1">2*(POWER(((C3 - $B$36 / 6) * ($B$36 / 6) + 1), 3) - 1) * $B$35 / $B$36 + B3 * 2</f>
-        <v>37.198100297525258</v>
+        <v>38.334818800412435</v>
       </c>
       <c r="E3">
         <f ca="1">IF(RAND()&lt; IF(E2 = 1, 1 - $D$34 + $D$35, $D$35), 1, 0)</f>
@@ -9314,10 +9315,10 @@
       </c>
       <c r="F3">
         <f t="shared" ref="F3:F32" ca="1" si="2">IF(IF(E3=1,D3,0) &lt; 0, 0, IF(E3=1,D3,0))</f>
-        <v>37.198100297525258</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+        <v>38.334818800412435</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" ht="17.25" thickBot="1">
       <c r="A4" s="1" t="s">
         <v>16</v>
       </c>
@@ -9326,22 +9327,22 @@
       </c>
       <c r="C4" s="7">
         <f t="shared" ca="1" si="0"/>
-        <v>-1.8878076465624039</v>
+        <v>-0.33818379536438692</v>
       </c>
       <c r="D4" s="5">
         <f t="shared" ca="1" si="1"/>
-        <v>0.4955584047349646</v>
+        <v>6.2430862158144951</v>
       </c>
       <c r="E4">
         <f ca="1">IF(RAND()&lt; IF(E3 = 1, 1 - $D$34 + $D$35, $D$35), 1, 0)</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F4">
         <f t="shared" ca="1" si="2"/>
-        <v>0.4955584047349646</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" ht="17.25" thickBot="1">
       <c r="A5" s="1" t="s">
         <v>17</v>
       </c>
@@ -9350,22 +9351,22 @@
       </c>
       <c r="C5" s="7">
         <f t="shared" ca="1" si="0"/>
-        <v>-0.17943501781743262</v>
+        <v>0.14034628493312373</v>
       </c>
       <c r="D5" s="5">
         <f t="shared" ca="1" si="1"/>
-        <v>3.8835878511139423</v>
+        <v>9.3529114592762319</v>
       </c>
       <c r="E5">
         <f t="shared" ref="E5:E32" ca="1" si="3">IF(RAND()&lt; IF(E4 = 1, 1 - $D$34 + $D$35, $D$35), 1, 0)</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F5">
         <f t="shared" ca="1" si="2"/>
-        <v>3.8835878511139423</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" ht="17.25" thickBot="1">
       <c r="A6" s="1" t="s">
         <v>18</v>
       </c>
@@ -9374,22 +9375,22 @@
       </c>
       <c r="C6" s="7">
         <f t="shared" ca="1" si="0"/>
-        <v>0.87833555962811904</v>
+        <v>0.14802831419685802</v>
       </c>
       <c r="D6" s="5">
         <f t="shared" ca="1" si="1"/>
-        <v>29.559283608920765</v>
+        <v>8.5087672961140601</v>
       </c>
       <c r="E6">
         <f t="shared" ca="1" si="3"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F6">
         <f t="shared" ca="1" si="2"/>
-        <v>29.559283608920765</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" ht="17.25" thickBot="1">
       <c r="A7" s="1" t="s">
         <v>19</v>
       </c>
@@ -9398,22 +9399,22 @@
       </c>
       <c r="C7" s="7">
         <f t="shared" ca="1" si="0"/>
-        <v>0.29796859915901469</v>
+        <v>-0.36643588312504111</v>
       </c>
       <c r="D7" s="5">
         <f t="shared" ca="1" si="1"/>
-        <v>10.800310158391936</v>
+        <v>-0.47779537350123213</v>
       </c>
       <c r="E7">
         <f t="shared" ca="1" si="3"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F7">
         <f t="shared" ca="1" si="2"/>
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:6" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:6" ht="17.25" thickBot="1">
       <c r="A8" s="1" t="s">
         <v>20</v>
       </c>
@@ -9422,11 +9423,11 @@
       </c>
       <c r="C8" s="7">
         <f t="shared" ca="1" si="0"/>
-        <v>-0.67447869856950904</v>
+        <v>-0.12140198489113588</v>
       </c>
       <c r="D8" s="5">
         <f t="shared" ca="1" si="1"/>
-        <v>-5.0370278879977182</v>
+        <v>0.93551994081344958</v>
       </c>
       <c r="E8">
         <f t="shared" ca="1" si="3"/>
@@ -9437,7 +9438,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:6" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:6" ht="17.25" thickBot="1">
       <c r="A9" s="1" t="s">
         <v>21</v>
       </c>
@@ -9446,11 +9447,11 @@
       </c>
       <c r="C9" s="7">
         <f t="shared" ca="1" si="0"/>
-        <v>-0.86360640969309177</v>
+        <v>-0.80118855532161171</v>
       </c>
       <c r="D9" s="5">
         <f t="shared" ca="1" si="1"/>
-        <v>-6.7458536870062744</v>
+        <v>-6.4231532636736013</v>
       </c>
       <c r="E9">
         <f t="shared" ca="1" si="3"/>
@@ -9461,7 +9462,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:6" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:6" ht="17.25" thickBot="1">
       <c r="A10" s="1" t="s">
         <v>22</v>
       </c>
@@ -9470,11 +9471,11 @@
       </c>
       <c r="C10" s="7">
         <f t="shared" ca="1" si="0"/>
-        <v>-0.19148155367456232</v>
+        <v>9.0644146484297194E-2</v>
       </c>
       <c r="D10" s="5">
         <f t="shared" ca="1" si="1"/>
-        <v>2.9140714901768749</v>
+        <v>7.5736169085294378</v>
       </c>
       <c r="E10">
         <f t="shared" ca="1" si="3"/>
@@ -9485,7 +9486,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:6" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:6" ht="17.25" thickBot="1">
       <c r="A11" s="1" t="s">
         <v>23</v>
       </c>
@@ -9494,11 +9495,11 @@
       </c>
       <c r="C11" s="7">
         <f t="shared" ca="1" si="0"/>
-        <v>0.41070872677832204</v>
+        <v>-0.47323542532309903</v>
       </c>
       <c r="D11" s="5">
         <f t="shared" ca="1" si="1"/>
-        <v>19.401785104268157</v>
+        <v>4.2172013008491103</v>
       </c>
       <c r="E11">
         <f t="shared" ca="1" si="3"/>
@@ -9509,7 +9510,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:6" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:6" ht="17.25" thickBot="1">
       <c r="A12" s="1" t="s">
         <v>24</v>
       </c>
@@ -9518,11 +9519,11 @@
       </c>
       <c r="C12" s="7">
         <f t="shared" ca="1" si="0"/>
-        <v>-0.65625072412666374</v>
+        <v>0.9557931652507321</v>
       </c>
       <c r="D12" s="5">
         <f t="shared" ca="1" si="1"/>
-        <v>2.8914596915287412</v>
+        <v>37.604359365422866</v>
       </c>
       <c r="E12">
         <f t="shared" ca="1" si="3"/>
@@ -9533,7 +9534,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:6" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:6" ht="17.25" thickBot="1">
       <c r="A13" s="1" t="s">
         <v>25</v>
       </c>
@@ -9542,11 +9543,11 @@
       </c>
       <c r="C13" s="7">
         <f t="shared" ca="1" si="0"/>
-        <v>0.61609068092184838</v>
+        <v>-0.13352293117233741</v>
       </c>
       <c r="D13" s="5">
         <f t="shared" ca="1" si="1"/>
-        <v>25.878979709439079</v>
+        <v>8.9526961323361451</v>
       </c>
       <c r="E13">
         <f t="shared" ca="1" si="3"/>
@@ -9557,7 +9558,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:6" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:6" ht="17.25" thickBot="1">
       <c r="A14" s="1" t="s">
         <v>26</v>
       </c>
@@ -9566,22 +9567,22 @@
       </c>
       <c r="C14" s="7">
         <f t="shared" ca="1" si="0"/>
-        <v>-0.90160583561656582</v>
+        <v>0.49258306415580999</v>
       </c>
       <c r="D14" s="5">
         <f t="shared" ca="1" si="1"/>
-        <v>3.4770461913190225</v>
+        <v>23.821531870081643</v>
       </c>
       <c r="E14">
         <f t="shared" ca="1" si="3"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F14">
         <f t="shared" ca="1" si="2"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="15" spans="1:6" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+        <v>23.821531870081643</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" ht="17.25" thickBot="1">
       <c r="A15" s="1" t="s">
         <v>27</v>
       </c>
@@ -9590,22 +9591,22 @@
       </c>
       <c r="C15" s="7">
         <f t="shared" ca="1" si="0"/>
-        <v>-1.2567417697685996</v>
+        <v>-2.2228717559041127E-3</v>
       </c>
       <c r="D15" s="5">
         <f t="shared" ca="1" si="1"/>
-        <v>4.8195210714177072</v>
+        <v>15.075370209301125</v>
       </c>
       <c r="E15">
         <f t="shared" ca="1" si="3"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F15">
         <f t="shared" ca="1" si="2"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="16" spans="1:6" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+        <v>15.075370209301125</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" ht="17.25" thickBot="1">
       <c r="A16" s="1" t="s">
         <v>28</v>
       </c>
@@ -9614,11 +9615,11 @@
       </c>
       <c r="C16" s="7">
         <f t="shared" ca="1" si="0"/>
-        <v>0.19604625702539713</v>
+        <v>-4.193405305725189E-2</v>
       </c>
       <c r="D16" s="5">
         <f t="shared" ca="1" si="1"/>
-        <v>15.910734070491676</v>
+        <v>11.39981320597103</v>
       </c>
       <c r="E16">
         <f t="shared" ca="1" si="3"/>
@@ -9629,7 +9630,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:11" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:11" ht="17.25" thickBot="1">
       <c r="A17" s="1" t="s">
         <v>29</v>
       </c>
@@ -9638,22 +9639,22 @@
       </c>
       <c r="C17" s="7">
         <f t="shared" ca="1" si="0"/>
-        <v>0.40086326758480134</v>
+        <v>-2.5623095765361249E-2</v>
       </c>
       <c r="D17" s="5">
         <f t="shared" ca="1" si="1"/>
-        <v>19.945519208947204</v>
+        <v>10.873697538814733</v>
       </c>
       <c r="E17">
         <f t="shared" ca="1" si="3"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F17">
         <f t="shared" ca="1" si="2"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="18" spans="1:11" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+        <v>10.873697538814733</v>
+      </c>
+    </row>
+    <row r="18" spans="1:11" ht="17.25" thickBot="1">
       <c r="A18" s="1" t="s">
         <v>30</v>
       </c>
@@ -9662,11 +9663,11 @@
       </c>
       <c r="C18" s="7">
         <f t="shared" ca="1" si="0"/>
-        <v>0.13889503973679718</v>
+        <v>1.5859988754337746</v>
       </c>
       <c r="D18" s="5">
         <f t="shared" ca="1" si="1"/>
-        <v>16.923604321771748</v>
+        <v>72.885849985434874</v>
       </c>
       <c r="E18">
         <f t="shared" ca="1" si="3"/>
@@ -9677,7 +9678,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="1:11" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:11" ht="17.25" thickBot="1">
       <c r="A19" s="1" t="s">
         <v>31</v>
       </c>
@@ -9686,11 +9687,11 @@
       </c>
       <c r="C19" s="7">
         <f t="shared" ca="1" si="0"/>
-        <v>0.82644543293263006</v>
+        <v>-0.67147599152151838</v>
       </c>
       <c r="D19" s="5">
         <f t="shared" ca="1" si="1"/>
-        <v>33.61440941980613</v>
+        <v>3.7838611800806348</v>
       </c>
       <c r="E19">
         <f t="shared" ca="1" si="3"/>
@@ -9701,7 +9702,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="1:11" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:11" ht="17.25" thickBot="1">
       <c r="A20" s="1" t="s">
         <v>32</v>
       </c>
@@ -9710,11 +9711,11 @@
       </c>
       <c r="C20" s="7">
         <f t="shared" ca="1" si="0"/>
-        <v>-1.573656767872923</v>
+        <v>-2.027058805664931</v>
       </c>
       <c r="D20" s="5">
         <f t="shared" ca="1" si="1"/>
-        <v>-4.6755777109269854</v>
+        <v>-4.7178651618662375</v>
       </c>
       <c r="E20">
         <f t="shared" ca="1" si="3"/>
@@ -9725,7 +9726,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="1:11" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:11" ht="17.25" thickBot="1">
       <c r="A21" s="1" t="s">
         <v>33</v>
       </c>
@@ -9734,11 +9735,11 @@
       </c>
       <c r="C21" s="7">
         <f t="shared" ca="1" si="0"/>
-        <v>0.36717200250547971</v>
+        <v>1.8594444828212471</v>
       </c>
       <c r="D21" s="5">
         <f t="shared" ca="1" si="1"/>
-        <v>13.285570889315045</v>
+        <v>82.080685764357526</v>
       </c>
       <c r="E21">
         <f t="shared" ca="1" si="3"/>
@@ -9749,7 +9750,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="1:11" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:11" ht="17.25" thickBot="1">
       <c r="A22" s="1" t="s">
         <v>34</v>
       </c>
@@ -9758,11 +9759,11 @@
       </c>
       <c r="C22" s="7">
         <f t="shared" ca="1" si="0"/>
-        <v>-4.7840337414461701E-3</v>
+        <v>-0.56365196178149568</v>
       </c>
       <c r="D22" s="5">
         <f t="shared" ca="1" si="1"/>
-        <v>7.2309010301708092</v>
+        <v>0.20823695285143629</v>
       </c>
       <c r="E22">
         <f t="shared" ca="1" si="3"/>
@@ -9773,7 +9774,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="1:11" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:11" ht="17.25" thickBot="1">
       <c r="A23" s="1" t="s">
         <v>35</v>
       </c>
@@ -9782,22 +9783,22 @@
       </c>
       <c r="C23" s="7">
         <f t="shared" ca="1" si="0"/>
-        <v>-0.55358710393341681</v>
+        <v>-7.8180603807179325E-2</v>
       </c>
       <c r="D23" s="5">
         <f t="shared" ca="1" si="1"/>
-        <v>-1.9071873351178539</v>
+        <v>3.8088668827880792</v>
       </c>
       <c r="E23">
         <f t="shared" ca="1" si="3"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F23">
         <f t="shared" ca="1" si="2"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="24" spans="1:11" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+        <v>3.8088668827880792</v>
+      </c>
+    </row>
+    <row r="24" spans="1:11" ht="17.25" thickBot="1">
       <c r="A24" s="1" t="s">
         <v>36</v>
       </c>
@@ -9806,22 +9807,22 @@
       </c>
       <c r="C24" s="7">
         <f t="shared" ca="1" si="0"/>
-        <v>-0.19901282138293236</v>
+        <v>0.98375528590227657</v>
       </c>
       <c r="D24" s="5">
         <f t="shared" ca="1" si="1"/>
-        <v>2.0093530557405455</v>
+        <v>33.146189755017232</v>
       </c>
       <c r="E24">
         <f t="shared" ca="1" si="3"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F24">
         <f t="shared" ca="1" si="2"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="25" spans="1:11" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+        <v>33.146189755017232</v>
+      </c>
+    </row>
+    <row r="25" spans="1:11" ht="17.25" thickBot="1">
       <c r="A25" s="1" t="s">
         <v>37</v>
       </c>
@@ -9830,11 +9831,11 @@
       </c>
       <c r="C25" s="7">
         <f t="shared" ca="1" si="0"/>
-        <v>0.25760432891324075</v>
+        <v>2.3053488416287449</v>
       </c>
       <c r="D25" s="5">
         <f t="shared" ca="1" si="1"/>
-        <v>11.066624774245756</v>
+        <v>118.09231714517605</v>
       </c>
       <c r="E25">
         <f t="shared" ca="1" si="3"/>
@@ -9845,7 +9846,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="26" spans="1:11" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:11" ht="17.25" thickBot="1">
       <c r="A26" s="1" t="s">
         <v>38</v>
       </c>
@@ -9854,22 +9855,22 @@
       </c>
       <c r="C26" s="7">
         <f t="shared" ca="1" si="0"/>
-        <v>0.61438270076824286</v>
+        <v>0.973454090427467</v>
       </c>
       <c r="D26" s="5">
         <f t="shared" ca="1" si="1"/>
-        <v>21.025793585738796</v>
+        <v>33.922884609100208</v>
       </c>
       <c r="E26">
         <f t="shared" ca="1" si="3"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F26">
         <f t="shared" ca="1" si="2"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="27" spans="1:11" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+        <v>33.922884609100208</v>
+      </c>
+    </row>
+    <row r="27" spans="1:11" ht="17.25" thickBot="1">
       <c r="A27" s="1" t="s">
         <v>39</v>
       </c>
@@ -9878,11 +9879,11 @@
       </c>
       <c r="C27" s="7">
         <f t="shared" ca="1" si="0"/>
-        <v>1.3973451349823105</v>
+        <v>0.36660465869434</v>
       </c>
       <c r="D27" s="5">
         <f t="shared" ca="1" si="1"/>
-        <v>55.436721515659833</v>
+        <v>15.471313519496508</v>
       </c>
       <c r="E27">
         <f t="shared" ca="1" si="3"/>
@@ -9890,10 +9891,10 @@
       </c>
       <c r="F27">
         <f t="shared" ca="1" si="2"/>
-        <v>55.436721515659833</v>
-      </c>
-    </row>
-    <row r="28" spans="1:11" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+        <v>15.471313519496508</v>
+      </c>
+    </row>
+    <row r="28" spans="1:11" ht="17.25" thickBot="1">
       <c r="A28" s="1" t="s">
         <v>40</v>
       </c>
@@ -9902,11 +9903,11 @@
       </c>
       <c r="C28" s="7">
         <f t="shared" ca="1" si="0"/>
-        <v>-1.355992361224436</v>
+        <v>-0.21777705502175998</v>
       </c>
       <c r="D28" s="5">
         <f t="shared" ca="1" si="1"/>
-        <v>-3.3216125964897181</v>
+        <v>3.7526295652365178</v>
       </c>
       <c r="E28">
         <f t="shared" ca="1" si="3"/>
@@ -9914,10 +9915,10 @@
       </c>
       <c r="F28">
         <f t="shared" ca="1" si="2"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="29" spans="1:11" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+        <v>3.7526295652365178</v>
+      </c>
+    </row>
+    <row r="29" spans="1:11" ht="17.25" thickBot="1">
       <c r="A29" s="1" t="s">
         <v>41</v>
       </c>
@@ -9926,11 +9927,11 @@
       </c>
       <c r="C29" s="7">
         <f t="shared" ca="1" si="0"/>
-        <v>-0.39225965848676048</v>
+        <v>-0.19801477975885376</v>
       </c>
       <c r="D29" s="5">
         <f t="shared" ca="1" si="1"/>
-        <v>1.8395567566692002</v>
+        <v>4.2231748051828948</v>
       </c>
       <c r="E29">
         <f t="shared" ca="1" si="3"/>
@@ -9938,10 +9939,10 @@
       </c>
       <c r="F29">
         <f t="shared" ca="1" si="2"/>
-        <v>1.8395567566692002</v>
-      </c>
-    </row>
-    <row r="30" spans="1:11" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+        <v>4.2231748051828948</v>
+      </c>
+    </row>
+    <row r="30" spans="1:11" ht="17.25" thickBot="1">
       <c r="A30" s="1" t="s">
         <v>42</v>
       </c>
@@ -9950,22 +9951,22 @@
       </c>
       <c r="C30" s="7">
         <f t="shared" ca="1" si="0"/>
-        <v>3.9387485816692984E-2</v>
+        <v>-1.2201673800655635</v>
       </c>
       <c r="D30" s="5">
         <f t="shared" ca="1" si="1"/>
-        <v>6.4154786655625298</v>
+        <v>-4.5142137167578884</v>
       </c>
       <c r="E30">
         <f t="shared" ca="1" si="3"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F30">
         <f t="shared" ca="1" si="2"/>
-        <v>6.4154786655625298</v>
-      </c>
-    </row>
-    <row r="31" spans="1:11" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="1:11" ht="17.25" thickBot="1">
       <c r="A31" s="1" t="s">
         <v>43</v>
       </c>
@@ -9974,22 +9975,22 @@
       </c>
       <c r="C31" s="7">
         <f t="shared" ca="1" si="0"/>
-        <v>-0.48938711201211554</v>
+        <v>-0.7601515181486016</v>
       </c>
       <c r="D31" s="5">
         <f t="shared" ca="1" si="1"/>
-        <v>-1.1355642638316503</v>
+        <v>-3.1884104062231486</v>
       </c>
       <c r="E31">
         <f t="shared" ca="1" si="3"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F31">
         <f t="shared" ca="1" si="2"/>
         <v>0</v>
       </c>
     </row>
-    <row r="32" spans="1:11" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:11" ht="17.25" thickBot="1">
       <c r="A32" s="1" t="s">
         <v>44</v>
       </c>
@@ -9998,11 +9999,11 @@
       </c>
       <c r="C32" s="7">
         <f t="shared" ca="1" si="0"/>
-        <v>8.1277459256805639E-3</v>
+        <v>0.26475655946941884</v>
       </c>
       <c r="D32" s="5">
         <f t="shared" ca="1" si="1"/>
-        <v>5.0563616879570343</v>
+        <v>10.229462117508616</v>
       </c>
       <c r="E32">
         <f t="shared" ca="1" si="3"/>
@@ -10010,7 +10011,7 @@
       </c>
       <c r="F32">
         <f t="shared" ca="1" si="2"/>
-        <v>5.0563616879570343</v>
+        <v>10.229462117508616</v>
       </c>
       <c r="H32" t="s">
         <v>55</v>
@@ -10025,7 +10026,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="33" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:11">
       <c r="A33" s="3" t="s">
         <v>46</v>
       </c>
@@ -10042,7 +10043,7 @@
       </c>
       <c r="F33">
         <f ca="1">SUM(F2:F32)</f>
-        <v>139.88464878814352</v>
+        <v>223.11701200379292</v>
       </c>
       <c r="H33">
         <v>23.89</v>
@@ -10057,7 +10058,7 @@
         <v>173.46</v>
       </c>
     </row>
-    <row r="34" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:11">
       <c r="A34" s="4" t="s">
         <v>47</v>
       </c>
@@ -10073,7 +10074,7 @@
       </c>
       <c r="F34">
         <f ca="1">COUNTIF(F2:F32,"&gt;0")</f>
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="H34">
         <v>15.16</v>
@@ -10088,7 +10089,7 @@
         <v>125.79</v>
       </c>
     </row>
-    <row r="35" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:11">
       <c r="A35" s="4" t="s">
         <v>45</v>
       </c>
@@ -10115,7 +10116,7 @@
         <v>225.03</v>
       </c>
     </row>
-    <row r="36" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:11">
       <c r="A36" t="s">
         <v>49</v>
       </c>
@@ -10135,7 +10136,7 @@
         <v>220.72</v>
       </c>
     </row>
-    <row r="37" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:11">
       <c r="B37">
         <f>_xlfn.VAR.P(B2:B32)</f>
         <v>2.8086160249739569</v>
@@ -10153,7 +10154,7 @@
         <v>298.62</v>
       </c>
     </row>
-    <row r="38" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:11">
       <c r="H38">
         <v>26.65</v>
       </c>
@@ -10167,7 +10168,7 @@
         <v>210.43</v>
       </c>
     </row>
-    <row r="39" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:11">
       <c r="H39">
         <v>14.9</v>
       </c>
@@ -10181,7 +10182,7 @@
         <v>317.83999999999997</v>
       </c>
     </row>
-    <row r="40" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:11">
       <c r="H40">
         <v>17.91</v>
       </c>
@@ -10195,7 +10196,7 @@
         <v>145.11000000000001</v>
       </c>
     </row>
-    <row r="41" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:11">
       <c r="H41">
         <v>18.14</v>
       </c>
@@ -10209,7 +10210,7 @@
         <v>298.98</v>
       </c>
     </row>
-    <row r="42" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:11">
       <c r="H42">
         <v>34.35</v>
       </c>
@@ -10223,7 +10224,7 @@
         <v>275.99</v>
       </c>
     </row>
-    <row r="43" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:11">
       <c r="H43">
         <v>22.28</v>
       </c>
@@ -10237,7 +10238,7 @@
         <v>196.14</v>
       </c>
     </row>
-    <row r="44" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:11">
       <c r="H44">
         <v>22.74</v>
       </c>
@@ -10251,7 +10252,7 @@
         <v>119.1</v>
       </c>
     </row>
-    <row r="45" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:11">
       <c r="H45">
         <v>17.46</v>
       </c>
@@ -10265,7 +10266,7 @@
         <v>199.35</v>
       </c>
     </row>
-    <row r="46" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:11">
       <c r="H46">
         <v>24.35</v>
       </c>
@@ -10279,7 +10280,7 @@
         <v>271.73</v>
       </c>
     </row>
-    <row r="47" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:11">
       <c r="H47">
         <v>3.21</v>
       </c>
@@ -10293,7 +10294,7 @@
         <v>400.28</v>
       </c>
     </row>
-    <row r="48" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:11">
       <c r="H48">
         <v>19.059999999999999</v>
       </c>
@@ -10308,7 +10309,7 @@
         <v>239.02</v>
       </c>
     </row>
-    <row r="49" spans="8:11" x14ac:dyDescent="0.3">
+    <row r="49" spans="8:11">
       <c r="H49">
         <v>22.74</v>
       </c>
@@ -10319,7 +10320,7 @@
         <v>231.08</v>
       </c>
     </row>
-    <row r="50" spans="8:11" x14ac:dyDescent="0.3">
+    <row r="50" spans="8:11">
       <c r="H50">
         <v>16.309999999999999</v>
       </c>
@@ -10330,7 +10331,7 @@
         <v>306.31</v>
       </c>
     </row>
-    <row r="51" spans="8:11" x14ac:dyDescent="0.3">
+    <row r="51" spans="8:11">
       <c r="H51">
         <v>18.37</v>
       </c>
@@ -10341,7 +10342,7 @@
         <v>312.10000000000002</v>
       </c>
     </row>
-    <row r="52" spans="8:11" x14ac:dyDescent="0.3">
+    <row r="52" spans="8:11">
       <c r="H52">
         <v>10.79</v>
       </c>
@@ -10352,7 +10353,7 @@
         <v>200.45</v>
       </c>
     </row>
-    <row r="53" spans="8:11" x14ac:dyDescent="0.3">
+    <row r="53" spans="8:11">
       <c r="H53">
         <v>13.55</v>
       </c>
@@ -10363,7 +10364,7 @@
         <v>180.93</v>
       </c>
     </row>
-    <row r="54" spans="8:11" x14ac:dyDescent="0.3">
+    <row r="54" spans="8:11">
       <c r="H54">
         <v>8.5</v>
       </c>
@@ -10374,7 +10375,7 @@
         <v>180.07</v>
       </c>
     </row>
-    <row r="55" spans="8:11" x14ac:dyDescent="0.3">
+    <row r="55" spans="8:11">
       <c r="H55">
         <v>9.41</v>
       </c>
@@ -10385,7 +10386,7 @@
         <v>241.18</v>
       </c>
     </row>
-    <row r="56" spans="8:11" x14ac:dyDescent="0.3">
+    <row r="56" spans="8:11">
       <c r="H56">
         <v>19.29</v>
       </c>
@@ -10396,7 +10397,7 @@
         <v>118.08</v>
       </c>
     </row>
-    <row r="57" spans="8:11" x14ac:dyDescent="0.3">
+    <row r="57" spans="8:11">
       <c r="H57">
         <v>21.82</v>
       </c>
@@ -10407,7 +10408,7 @@
         <v>125.11</v>
       </c>
     </row>
-    <row r="58" spans="8:11" x14ac:dyDescent="0.3">
+    <row r="58" spans="8:11">
       <c r="H58">
         <v>23.66</v>
       </c>
@@ -10418,7 +10419,7 @@
         <v>326.86</v>
       </c>
     </row>
-    <row r="59" spans="8:11" x14ac:dyDescent="0.3">
+    <row r="59" spans="8:11">
       <c r="H59">
         <v>23.89</v>
       </c>
@@ -10429,7 +10430,7 @@
         <v>163.86</v>
       </c>
     </row>
-    <row r="60" spans="8:11" x14ac:dyDescent="0.3">
+    <row r="60" spans="8:11">
       <c r="H60">
         <v>7.35</v>
       </c>
@@ -10440,7 +10441,7 @@
         <v>220.75</v>
       </c>
     </row>
-    <row r="61" spans="8:11" x14ac:dyDescent="0.3">
+    <row r="61" spans="8:11">
       <c r="H61" s="2">
         <f>AVERAGE(H33:H60)</f>
         <v>18.640357142857148</v>
@@ -10452,7 +10453,7 @@
         <v>238.83</v>
       </c>
     </row>
-    <row r="62" spans="8:11" x14ac:dyDescent="0.3">
+    <row r="62" spans="8:11">
       <c r="J62">
         <v>197.97</v>
       </c>
@@ -10461,12 +10462,12 @@
         <v>226.3172413793103</v>
       </c>
     </row>
-    <row r="63" spans="8:11" x14ac:dyDescent="0.3">
+    <row r="63" spans="8:11">
       <c r="J63">
         <v>333.89</v>
       </c>
     </row>
-    <row r="64" spans="8:11" x14ac:dyDescent="0.3">
+    <row r="64" spans="8:11">
       <c r="J64" s="2">
         <f>AVERAGE(J33:J63)</f>
         <v>376.97687096774195</v>
@@ -10487,13 +10488,13 @@
       <selection activeCell="G10" sqref="G10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="16.5"/>
   <cols>
     <col min="1" max="1" width="8.5" customWidth="1"/>
     <col min="2" max="33" width="4.25" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:33" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:33" ht="17.25" thickBot="1">
       <c r="A1" t="s">
         <v>69</v>
       </c>
@@ -10594,7 +10595,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="2" spans="1:33" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:33" ht="17.25" thickBot="1">
       <c r="A2" t="s">
         <v>70</v>
       </c>
@@ -10696,7 +10697,7 @@
         <v>0.89677419354838717</v>
       </c>
     </row>
-    <row r="3" spans="1:33" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:33" ht="17.25" thickBot="1">
       <c r="A3" t="s">
         <v>71</v>
       </c>
@@ -10794,7 +10795,7 @@
         <v>0.97241379310344833</v>
       </c>
     </row>
-    <row r="4" spans="1:33" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:33" ht="17.25" thickBot="1">
       <c r="A4" t="s">
         <v>72</v>
       </c>
@@ -10896,7 +10897,7 @@
         <v>1.4967741935483874</v>
       </c>
     </row>
-    <row r="5" spans="1:33" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:33" ht="17.25" thickBot="1">
       <c r="A5" t="s">
         <v>73</v>
       </c>
@@ -10996,7 +10997,7 @@
         <v>2.2799999999999994</v>
       </c>
     </row>
-    <row r="6" spans="1:33" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:33" ht="17.25" thickBot="1">
       <c r="A6" t="s">
         <v>74</v>
       </c>
@@ -11098,7 +11099,7 @@
         <v>3.4935483870967738</v>
       </c>
     </row>
-    <row r="7" spans="1:33" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:33" ht="17.25" thickBot="1">
       <c r="A7" t="s">
         <v>75</v>
       </c>
@@ -11198,7 +11199,7 @@
         <v>4.6433333333333326</v>
       </c>
     </row>
-    <row r="8" spans="1:33" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:33" ht="17.25" thickBot="1">
       <c r="A8" t="s">
         <v>76</v>
       </c>
@@ -11300,7 +11301,7 @@
         <v>8.8903225806451616</v>
       </c>
     </row>
-    <row r="9" spans="1:33" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:33" ht="17.25" thickBot="1">
       <c r="A9" t="s">
         <v>77</v>
       </c>
@@ -11402,7 +11403,7 @@
         <v>9.3580645161290317</v>
       </c>
     </row>
-    <row r="10" spans="1:33" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:33" ht="17.25" thickBot="1">
       <c r="A10" t="s">
         <v>78</v>
       </c>
@@ -11502,7 +11503,7 @@
         <v>5.423333333333332</v>
       </c>
     </row>
-    <row r="11" spans="1:33" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:33" ht="17.25" thickBot="1">
       <c r="A11" t="s">
         <v>79</v>
       </c>
@@ -11604,7 +11605,7 @@
         <v>1.7161290322580645</v>
       </c>
     </row>
-    <row r="12" spans="1:33" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:33" ht="17.25" thickBot="1">
       <c r="A12" t="s">
         <v>80</v>
       </c>
@@ -11704,7 +11705,7 @@
         <v>1.88</v>
       </c>
     </row>
-    <row r="13" spans="1:33" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:33" ht="17.25" thickBot="1">
       <c r="A13" t="s">
         <v>81</v>
       </c>
